--- a/public/template-import-questions.xlsx
+++ b/public/template-import-questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geekup/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC80B72-72A9-BC44-8F5F-1204FB00F957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B515DB5B-63CB-044D-8E99-E1FFA3025B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Đúng sai</t>
   </si>
@@ -74,21 +74,6 @@
     <t>Đáp án (4)</t>
   </si>
   <si>
-    <t>Đáp án (5)</t>
-  </si>
-  <si>
-    <t>Đáp án (6)</t>
-  </si>
-  <si>
-    <t>Đáp án (7)</t>
-  </si>
-  <si>
-    <t>Đáp án (8)</t>
-  </si>
-  <si>
-    <t>Đáp án (9)</t>
-  </si>
-  <si>
     <t>Thẻ</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
   </si>
   <si>
     <t>CHUYÊN MỤC CÂU HỎI</t>
-  </si>
-  <si>
-    <t>Tốt nghiệp THPT</t>
   </si>
   <si>
     <t>Giáo dục K12</t>
@@ -140,7 +122,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -160,7 +142,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
  -</t>
@@ -180,7 +162,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">: là Sheet chứa danh mục </t>
     </r>
@@ -198,7 +180,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> và Độ khó của câu hỏi.
  -</t>
@@ -218,7 +200,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>: là Sheet chứa danh sách câu hỏi cần import vào hệ thống
  -</t>
@@ -238,7 +220,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">: là Sheet hướng dẫn chi tiết việc import câu hỏi.
 </t>
@@ -258,7 +240,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -278,7 +260,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 
 - </t>
@@ -298,7 +280,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
      + Loại câu hỏi
@@ -327,7 +309,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
      + Cột [Chuyên mục]: Lấy mã chuyên mục câu hỏi trong hệ thống.
@@ -361,7 +343,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">. Ví dụ: 1,2 hoặc 1   (Không áp dụng với loại câu hỏi tự luận).
         Với loại đúng/sai: chỉ có một đáp án (1 - Đúng / 2 - Sai)
@@ -371,42 +353,6 @@
     </r>
   </si>
   <si>
-    <t>Gồm xe đạp kể cả xe đạp máy, xe đạp điện, xe xích lô, xe lăn dùng cho người khuyết tật, xe súc vật kéo và các loại xe tương tự.</t>
-  </si>
-  <si>
-    <t>Gồm xe đạp kể cả xe đạp máy, xe đạp điện, xe gắn máy, xe cơ giới dùng cho người khuyết tật và xe máy chuyên dùng.</t>
-  </si>
-  <si>
-    <t>Gồm xe ô tô, máy kéo, rơ moóc hoặc sơ mi rơ moóc được kéo bởi xe ô tô, máy kéo.</t>
-  </si>
-  <si>
-    <t>Khái niệm “phương tiện giao thông thô sơ đường bộ” được hiểu thế nào là đúng?</t>
-  </si>
-  <si>
-    <t>“Phương tiện tham gia giao thông đường bộ” gồm những loại nào?</t>
-  </si>
-  <si>
-    <t>Phương tiện giao thông cơ giới đường bộ.</t>
-  </si>
-  <si>
-    <t>Phương tiện giao thông thô sơ đường bộ và xe máy chuyên dùng.</t>
-  </si>
-  <si>
-    <t>Cả ý 1 và ý 2.</t>
-  </si>
-  <si>
-    <t>Trên đường có nhiều làn đường cho xe đi cùng chiều được phân biệt bằng vạch kẻ phân làn đường, người điều khiển phương tiện phải cho xe đi như thế nào?</t>
-  </si>
-  <si>
-    <t>Cho xe đi trên bất kỳ làn đường nào hoặc giữa 02 làn đường nếu không có xe phía trước; khi cần thiết phải chuyển làn đường, người lái xe phải quan sát xe phía trước để bảo đảm an toàn.</t>
-  </si>
-  <si>
-    <t>Phải cho xe đi trong một làn đường và chỉ được chuyển làn đường ở những nơi cho phép; khi chuyển làn phải có tín hiệu báo trước và phải bảo đảm an toàn.</t>
-  </si>
-  <si>
-    <t>GPLX</t>
-  </si>
-  <si>
     <t>Mức độ vận dụng</t>
   </si>
   <si>
@@ -437,10 +383,61 @@
     <t>Single Choice Question</t>
   </si>
   <si>
-    <t>3,2</t>
-  </si>
-  <si>
     <t>Private</t>
+  </si>
+  <si>
+    <t>The new law will encourage growth in the export market _________.</t>
+  </si>
+  <si>
+    <t>next year</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>in fact</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>Chủ đề</t>
+  </si>
+  <si>
+    <t>Mức độ (thang 10)</t>
+  </si>
+  <si>
+    <t>Comprehension</t>
+  </si>
+  <si>
+    <t>He is excited about the new promotion and looking forward to ________ more responsibilities.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>taking in</t>
+  </si>
+  <si>
+    <t>taking on</t>
+  </si>
+  <si>
+    <t>take on</t>
+  </si>
+  <si>
+    <t>getting up</t>
+  </si>
+  <si>
+    <t>TOEIC</t>
+  </si>
+  <si>
+    <t>Part 5</t>
+  </si>
+  <si>
+    <t>Part 5, toeic</t>
+  </si>
+  <si>
+    <t>Multiple Choice Question</t>
   </si>
 </sst>
 </file>
@@ -465,7 +462,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -634,102 +631,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{9136EDD8-AC6D-410C-9F12-FE8A0216AE07}"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -1030,26 +932,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{75284AFC-B1AA-489D-916F-452CFA17E0E0}" name="Table2" displayName="Table2" ref="A1:T49" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:T49" xr:uid="{75284AFC-B1AA-489D-916F-452CFA17E0E0}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{C6416A9C-C8E5-4C48-A628-D9A51632BDE0}" name="Thứ tự" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2D895650-13DB-46D4-A49A-C0BFB9FF8D62}" name="Loại câu hỏi" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{AD8DD6C9-A201-4A82-B6AE-EBDA65D9E56B}" name="Nội dung câu hỏi" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{40B9E2FF-494D-49EE-B4E6-779401838C43}" name="Đáp án đúng" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{E9FBE3AD-C558-4FB9-864F-6460CB0674F9}" name="Đáp án (1)" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{66793A96-967D-402E-A778-337A8BAF4B9C}" name="Đáp án (2)" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{F8DF2B83-7045-4CDE-B76F-0F37F53BA2E4}" name="Đáp án (3)" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{F52C04BD-B838-4E57-A647-9BF7C7F56C33}" name="Đáp án (4)" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{649AFBF0-B0DA-4CFC-A55D-9017B9F73CA8}" name="Đáp án (5)" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{4C5085E7-9D22-40CC-A710-F5F4568D5C8E}" name="Đáp án (6)" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{F9B17923-0044-48AD-9093-CA5A2DF3303B}" name="Đáp án (7)" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F31D63B0-11D6-4845-9DF4-C009D45D0C8D}" name="Đáp án (8)" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{1B0A73F8-15A6-4BB6-BF22-513747C7DC60}" name="Đáp án (9)" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{98470245-3577-47E2-B128-354122A96E7E}" name="Chuyên mục" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{75284AFC-B1AA-489D-916F-452CFA17E0E0}" name="Table2" displayName="Table2" ref="A1:O49" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{C6416A9C-C8E5-4C48-A628-D9A51632BDE0}" name="Thứ tự" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2D895650-13DB-46D4-A49A-C0BFB9FF8D62}" name="Loại câu hỏi" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AD8DD6C9-A201-4A82-B6AE-EBDA65D9E56B}" name="Nội dung câu hỏi" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{40B9E2FF-494D-49EE-B4E6-779401838C43}" name="Đáp án đúng" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{E9FBE3AD-C558-4FB9-864F-6460CB0674F9}" name="Đáp án (1)" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{66793A96-967D-402E-A778-337A8BAF4B9C}" name="Đáp án (2)" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{F8DF2B83-7045-4CDE-B76F-0F37F53BA2E4}" name="Đáp án (3)" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{F52C04BD-B838-4E57-A647-9BF7C7F56C33}" name="Đáp án (4)" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{98470245-3577-47E2-B128-354122A96E7E}" name="Chủ đề" dataDxfId="4"/>
     <tableColumn id="16" xr3:uid="{D5398837-63CC-4FC3-996B-495C0A48D433}" name="Thẻ" dataDxfId="3"/>
     <tableColumn id="17" xr3:uid="{B4734AA1-713C-4B0A-BF88-234181404532}" name="Trạng thái"/>
-    <tableColumn id="18" xr3:uid="{0CDD905B-76B1-4A32-8E24-0F0BC8628C88}" name="Mức độ"/>
+    <tableColumn id="18" xr3:uid="{0CDD905B-76B1-4A32-8E24-0F0BC8628C88}" name="Mức độ (thang 10)"/>
     <tableColumn id="5" xr3:uid="{72B86E7B-8D82-724B-BC83-C9969929E3D4}" name="Mức độ vận dụng" dataDxfId="2"/>
     <tableColumn id="19" xr3:uid="{E58584DD-90F3-2442-8180-B6C48EB9A6BD}" name="Ngôn ngữ" dataDxfId="1"/>
     <tableColumn id="20" xr3:uid="{893C2C01-E05F-F741-9C4A-9267BC66CEDA}" name="Chế độ" dataDxfId="0"/>
@@ -1316,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1332,17 +1228,12 @@
     <col min="6" max="6" width="22.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="5" customWidth="1"/>
-    <col min="14" max="15" width="16.33203125" style="5" customWidth="1"/>
-    <col min="16" max="17" width="18.33203125" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="5"/>
+    <col min="9" max="10" width="16.33203125" style="5" customWidth="1"/>
+    <col min="11" max="12" width="18.33203125" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1368,185 +1259,139 @@
         <v>12</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
       <c r="N2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>1</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="238" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1562,13 +1407,8 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1584,13 +1424,8 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1606,13 +1441,8 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1628,13 +1458,8 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1650,13 +1475,8 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1672,13 +1492,8 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1694,13 +1509,8 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1716,13 +1526,8 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1738,13 +1543,8 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1760,13 +1560,8 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1782,13 +1577,8 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1804,13 +1594,8 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1826,13 +1611,8 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1848,13 +1628,8 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1870,13 +1645,8 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1892,13 +1662,8 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1914,13 +1679,8 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1936,13 +1696,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1958,13 +1713,8 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1980,13 +1730,8 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2002,13 +1747,8 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2024,13 +1764,8 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2046,13 +1781,8 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2068,13 +1798,8 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2090,13 +1815,8 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2112,13 +1832,8 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2134,13 +1849,8 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2156,13 +1866,8 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2178,13 +1883,8 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2200,13 +1900,8 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2222,13 +1917,8 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2244,13 +1934,8 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2266,13 +1951,8 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2288,13 +1968,8 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2310,13 +1985,8 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2332,13 +2002,8 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2354,13 +2019,8 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2376,13 +2036,8 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2398,13 +2053,8 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2420,13 +2070,8 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2442,13 +2087,8 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2464,13 +2104,8 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2486,13 +2121,8 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2508,13 +2138,8 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2530,11 +2155,6 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2555,19 +2175,19 @@
           <x14:formula1>
             <xm:f>DanhMuc!$F$11:$F$200</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N49</xm:sqref>
+          <xm:sqref>I2:I49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F5A1A68-AB08-44AE-A404-8652CC472E26}">
           <x14:formula1>
             <xm:f>DanhMuc!$J$3:$J$6</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P49</xm:sqref>
+          <xm:sqref>K2:K49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{058A3150-5741-4FEB-8A5D-500FB8FFC88F}">
           <x14:formula1>
             <xm:f>DanhMuc!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q49</xm:sqref>
+          <xm:sqref>L2:L49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2580,7 +2200,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2595,15 +2215,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12"/>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F1" s="12"/>
       <c r="I1" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J1" s="12"/>
     </row>
@@ -2612,19 +2232,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2632,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -2644,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2664,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2684,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2699,16 +2319,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E9" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2716,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2724,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2732,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2765,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
